--- a/fuentes/contenidos/grado06/guion11/CS_06_11_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion11/CS_06_11_CO_Escaleta.xlsx
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="204">
   <si>
     <t>Asignatura</t>
   </si>
@@ -399,9 +399,6 @@
     <t>El clima en nuestras vidas</t>
   </si>
   <si>
-    <t>Secuencia de imágenes que muestra cómo afecta el clima en la vida cotidiana</t>
-  </si>
-  <si>
     <t>5 y 6</t>
   </si>
   <si>
@@ -628,13 +625,31 @@
   </si>
   <si>
     <t>Digitalizar preguntas del recurso Banco de actividades: El clima y el paisaje</t>
+  </si>
+  <si>
+    <t>Digitalizar</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ecuencia de imágenes que muestra cómo afecta el clima en la vida cotidiana</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,12 +681,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -694,6 +703,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -829,7 +868,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -887,41 +926,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -963,38 +1029,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1302,142 +1347,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U285"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" style="19" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="62.85546875" style="30" customWidth="1"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="10" style="19" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="56.5703125" style="28" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" style="24" customWidth="1"/>
     <col min="9" max="9" width="6.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="61.28515625" style="30" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="109.85546875" style="28" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" style="19" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" customWidth="1"/>
     <col min="14" max="14" width="7.85546875" customWidth="1"/>
-    <col min="15" max="15" width="68.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" style="28" customWidth="1"/>
-    <col min="18" max="18" width="10.28515625" style="27" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" style="28" customWidth="1"/>
-    <col min="20" max="20" width="9" style="27" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="28" customWidth="1"/>
+    <col min="15" max="15" width="68.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" style="27" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" style="26" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" style="27" customWidth="1"/>
+    <col min="20" max="20" width="9" style="26" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="M1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="32" t="s">
+      <c r="N1" s="59"/>
+      <c r="O1" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="32" t="s">
+      <c r="P1" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="64" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="16" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="45"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="17" t="s">
         <v>90</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="35"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="65"/>
     </row>
     <row r="3" spans="1:21" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="65" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="42" t="s">
         <v>125</v>
       </c>
       <c r="H3" s="12">
@@ -1446,8 +1491,8 @@
       <c r="I3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="21" t="s">
-        <v>126</v>
+      <c r="J3" s="44" t="s">
+        <v>203</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>19</v>
@@ -1462,10 +1507,10 @@
         <v>19</v>
       </c>
       <c r="Q3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>123</v>
@@ -1474,28 +1519,28 @@
         <v>125</v>
       </c>
       <c r="U3" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="62" t="s">
-        <v>132</v>
+      <c r="F4" s="32"/>
+      <c r="G4" s="39" t="s">
+        <v>131</v>
       </c>
       <c r="H4" s="23">
         <v>2</v>
@@ -1503,13 +1548,13 @@
       <c r="I4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="22" t="s">
-        <v>133</v>
+      <c r="J4" s="39" t="s">
+        <v>132</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="29" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="7"/>
@@ -1519,34 +1564,34 @@
         <v>19</v>
       </c>
       <c r="Q4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>123</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="63" t="s">
-        <v>137</v>
+      <c r="D5" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="40" t="s">
+        <v>136</v>
       </c>
       <c r="H5" s="23">
         <v>3</v>
@@ -1554,13 +1599,13 @@
       <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="25" t="s">
-        <v>138</v>
+      <c r="J5" s="40" t="s">
+        <v>137</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="29" t="s">
         <v>6</v>
       </c>
       <c r="M5" s="7"/>
@@ -1570,38 +1615,38 @@
         <v>19</v>
       </c>
       <c r="Q5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="R5" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="S5" s="9" t="s">
         <v>123</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="41" t="s">
         <v>134</v>
-      </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="64" t="s">
-        <v>135</v>
       </c>
       <c r="H6" s="23">
         <v>4</v>
@@ -1609,13 +1654,13 @@
       <c r="I6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="29" t="s">
-        <v>136</v>
+      <c r="J6" s="41" t="s">
+        <v>135</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="29" t="s">
         <v>8</v>
       </c>
       <c r="M6" s="7"/>
@@ -1628,37 +1673,37 @@
         <v>7</v>
       </c>
       <c r="R6" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S6" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="T6" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="U6" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="T6" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="U6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="41" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="64" t="s">
-        <v>142</v>
       </c>
       <c r="H7" s="23">
         <v>5</v>
@@ -1666,13 +1711,13 @@
       <c r="I7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="22" t="s">
-        <v>143</v>
+      <c r="J7" s="39" t="s">
+        <v>142</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="29" t="s">
         <v>8</v>
       </c>
       <c r="M7" s="7"/>
@@ -1685,35 +1730,35 @@
         <v>7</v>
       </c>
       <c r="R7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S7" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="T7" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="U7" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="T7" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="39" t="s">
         <v>144</v>
-      </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="62" t="s">
-        <v>145</v>
       </c>
       <c r="H8" s="23">
         <v>6</v>
@@ -1721,13 +1766,13 @@
       <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="22" t="s">
-        <v>146</v>
+      <c r="J8" s="39" t="s">
+        <v>145</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="L8" s="29" t="s">
         <v>8</v>
       </c>
       <c r="M8" s="7"/>
@@ -1740,37 +1785,37 @@
         <v>7</v>
       </c>
       <c r="R8" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S8" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="T8" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="U8" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="T8" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="54" t="s">
+      <c r="D9" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="39" t="s">
         <v>147</v>
-      </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="62" t="s">
-        <v>148</v>
       </c>
       <c r="H9" s="23">
         <v>7</v>
@@ -1778,13 +1823,13 @@
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="22" t="s">
-        <v>149</v>
+      <c r="J9" s="39" t="s">
+        <v>148</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="29" t="s">
         <v>11</v>
       </c>
       <c r="M9" s="7"/>
@@ -1797,37 +1842,37 @@
         <v>7</v>
       </c>
       <c r="R9" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S9" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="T9" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="U9" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="T9" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="62" t="s">
-        <v>150</v>
+      <c r="D10" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="39" t="s">
+        <v>149</v>
       </c>
       <c r="H10" s="23">
         <v>8</v>
@@ -1835,13 +1880,13 @@
       <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="22" t="s">
-        <v>151</v>
+      <c r="J10" s="39" t="s">
+        <v>150</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="31" t="s">
+      <c r="L10" s="29" t="s">
         <v>11</v>
       </c>
       <c r="M10" s="7"/>
@@ -1854,37 +1899,37 @@
         <v>7</v>
       </c>
       <c r="R10" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S10" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="T10" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="U10" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="T10" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="62" t="s">
-        <v>154</v>
+      <c r="D11" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="39" t="s">
+        <v>153</v>
       </c>
       <c r="H11" s="23">
         <v>9</v>
@@ -1892,13 +1937,13 @@
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="22" t="s">
-        <v>153</v>
+      <c r="J11" s="39" t="s">
+        <v>152</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="29" t="s">
         <v>5</v>
       </c>
       <c r="M11" s="7"/>
@@ -1911,37 +1956,37 @@
         <v>7</v>
       </c>
       <c r="R11" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S11" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S11" s="9" t="s">
+      <c r="T11" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="U11" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="T11" s="10" t="s">
+    </row>
+    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="U11" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="54" t="s">
+      <c r="F12" s="32"/>
+      <c r="G12" s="39" t="s">
         <v>155</v>
-      </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="62" t="s">
-        <v>156</v>
       </c>
       <c r="H12" s="23">
         <v>10</v>
@@ -1949,13 +1994,13 @@
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="22" t="s">
-        <v>157</v>
+      <c r="J12" s="39" t="s">
+        <v>156</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="29" t="s">
         <v>5</v>
       </c>
       <c r="M12" s="7"/>
@@ -1968,37 +2013,37 @@
         <v>7</v>
       </c>
       <c r="R12" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S12" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S12" s="9" t="s">
+      <c r="T12" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="U12" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="T12" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="62" t="s">
-        <v>158</v>
+      <c r="D13" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="39" t="s">
+        <v>157</v>
       </c>
       <c r="H13" s="23">
         <v>11</v>
@@ -2006,13 +2051,13 @@
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="22" t="s">
-        <v>159</v>
+      <c r="J13" s="39" t="s">
+        <v>158</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="29" t="s">
         <v>8</v>
       </c>
       <c r="M13" s="7"/>
@@ -2025,37 +2070,37 @@
         <v>7</v>
       </c>
       <c r="R13" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S13" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S13" s="9" t="s">
+      <c r="T13" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="U13" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="T13" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="14" spans="1:21" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="41" t="s">
         <v>160</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="64" t="s">
-        <v>161</v>
       </c>
       <c r="H14" s="23">
         <v>12</v>
@@ -2063,13 +2108,13 @@
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="53" t="s">
-        <v>162</v>
+      <c r="J14" s="30" t="s">
+        <v>161</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="31" t="s">
+      <c r="L14" s="29" t="s">
         <v>5</v>
       </c>
       <c r="M14" s="7"/>
@@ -2082,37 +2127,37 @@
         <v>7</v>
       </c>
       <c r="R14" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S14" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="T14" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="U14" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="T14" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="U14" s="9" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" s="54" t="s">
+      <c r="D15" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="39" t="s">
         <v>164</v>
-      </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="62" t="s">
-        <v>165</v>
       </c>
       <c r="H15" s="23">
         <v>13</v>
@@ -2120,13 +2165,13 @@
       <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="22" t="s">
-        <v>166</v>
+      <c r="J15" s="39" t="s">
+        <v>165</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="31" t="s">
+      <c r="L15" s="29" t="s">
         <v>5</v>
       </c>
       <c r="M15" s="7"/>
@@ -2139,37 +2184,37 @@
         <v>7</v>
       </c>
       <c r="R15" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S15" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="T15" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="U15" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="T15" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="U15" s="9" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="54" t="s">
+      <c r="D16" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="39" t="s">
         <v>167</v>
-      </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="62" t="s">
-        <v>168</v>
       </c>
       <c r="H16" s="23">
         <v>14</v>
@@ -2177,13 +2222,13 @@
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="22" t="s">
-        <v>169</v>
+      <c r="J16" s="39" t="s">
+        <v>168</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="31" t="s">
+      <c r="L16" s="29" t="s">
         <v>5</v>
       </c>
       <c r="M16" s="7"/>
@@ -2196,39 +2241,39 @@
         <v>7</v>
       </c>
       <c r="R16" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S16" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S16" s="9" t="s">
+      <c r="T16" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="U16" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="T16" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="U16" s="9" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="62" t="s">
-        <v>170</v>
+      <c r="D17" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>169</v>
       </c>
       <c r="H17" s="23">
         <v>15</v>
@@ -2236,13 +2281,13 @@
       <c r="I17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="22" t="s">
-        <v>171</v>
+      <c r="J17" s="39" t="s">
+        <v>170</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="31" t="s">
+      <c r="L17" s="29" t="s">
         <v>8</v>
       </c>
       <c r="M17" s="7"/>
@@ -2255,39 +2300,39 @@
         <v>7</v>
       </c>
       <c r="R17" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S17" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S17" s="9" t="s">
+      <c r="T17" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="U17" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="T17" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="U17" s="9" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="F18" s="55" t="s">
+      <c r="D18" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="41" t="s">
         <v>172</v>
-      </c>
-      <c r="G18" s="64" t="s">
-        <v>173</v>
       </c>
       <c r="H18" s="23">
         <v>16</v>
@@ -2295,13 +2340,13 @@
       <c r="I18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="22" t="s">
-        <v>174</v>
+      <c r="J18" s="39" t="s">
+        <v>173</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="31" t="s">
+      <c r="L18" s="29" t="s">
         <v>8</v>
       </c>
       <c r="M18" s="7"/>
@@ -2314,37 +2359,37 @@
         <v>7</v>
       </c>
       <c r="R18" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S18" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S18" s="9" t="s">
+      <c r="T18" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="U18" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="T18" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="U18" s="9" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="62" t="s">
-        <v>175</v>
+      <c r="D19" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="39" t="s">
+        <v>174</v>
       </c>
       <c r="H19" s="23">
         <v>17</v>
@@ -2352,13 +2397,13 @@
       <c r="I19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="22" t="s">
-        <v>176</v>
+      <c r="J19" s="39" t="s">
+        <v>175</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="31" t="s">
+      <c r="L19" s="29" t="s">
         <v>8</v>
       </c>
       <c r="M19" s="7"/>
@@ -2371,35 +2416,35 @@
         <v>7</v>
       </c>
       <c r="R19" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S19" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S19" s="9" t="s">
+      <c r="T19" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="U19" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="T19" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="U19" s="9" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="39" t="s">
         <v>177</v>
-      </c>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="62" t="s">
-        <v>178</v>
       </c>
       <c r="H20" s="23">
         <v>18</v>
@@ -2407,13 +2452,13 @@
       <c r="I20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="22" t="s">
-        <v>179</v>
+      <c r="J20" s="39" t="s">
+        <v>178</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="31" t="s">
+      <c r="L20" s="29" t="s">
         <v>8</v>
       </c>
       <c r="M20" s="7"/>
@@ -2426,37 +2471,37 @@
         <v>7</v>
       </c>
       <c r="R20" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S20" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S20" s="9" t="s">
+      <c r="T20" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="U20" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="T20" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="U20" s="9" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="62" t="s">
-        <v>180</v>
+      <c r="D21" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="39" t="s">
+        <v>179</v>
       </c>
       <c r="H21" s="23">
         <v>19</v>
@@ -2464,13 +2509,13 @@
       <c r="I21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="22" t="s">
-        <v>181</v>
+      <c r="J21" s="39" t="s">
+        <v>180</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="29" t="s">
         <v>8</v>
       </c>
       <c r="M21" s="7"/>
@@ -2483,35 +2528,35 @@
         <v>7</v>
       </c>
       <c r="R21" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S21" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S21" s="9" t="s">
+      <c r="T21" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="U21" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="T21" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="U21" s="9" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="39" t="s">
         <v>182</v>
-      </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="62" t="s">
-        <v>183</v>
       </c>
       <c r="H22" s="23">
         <v>20</v>
@@ -2519,13 +2564,13 @@
       <c r="I22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="22" t="s">
-        <v>184</v>
+      <c r="J22" s="39" t="s">
+        <v>183</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="31" t="s">
+      <c r="L22" s="29" t="s">
         <v>8</v>
       </c>
       <c r="M22" s="7"/>
@@ -2538,35 +2583,35 @@
         <v>7</v>
       </c>
       <c r="R22" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S22" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S22" s="9" t="s">
+      <c r="T22" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="U22" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="T22" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="U22" s="9" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="62" t="s">
-        <v>185</v>
+      <c r="D23" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="45" t="s">
+        <v>184</v>
       </c>
       <c r="H23" s="23">
         <v>21</v>
@@ -2574,19 +2619,19 @@
       <c r="I23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="K23" s="6" t="s">
+      <c r="J23" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="31" t="s">
+      <c r="L23" s="29" t="s">
         <v>8</v>
       </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="O23" s="8" t="s">
-        <v>187</v>
+      <c r="O23" s="46" t="s">
+        <v>186</v>
       </c>
       <c r="P23" s="8" t="s">
         <v>20</v>
@@ -2595,35 +2640,35 @@
         <v>7</v>
       </c>
       <c r="R23" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S23" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S23" s="9" t="s">
+      <c r="T23" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="U23" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="T23" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="U23" s="9" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="E24" s="54"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="62" t="s">
-        <v>189</v>
+      <c r="D24" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="39" t="s">
+        <v>188</v>
       </c>
       <c r="H24" s="23">
         <v>22</v>
@@ -2631,13 +2676,13 @@
       <c r="I24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="22" t="s">
-        <v>190</v>
+      <c r="J24" s="39" t="s">
+        <v>189</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="31" t="s">
+      <c r="L24" s="29" t="s">
         <v>8</v>
       </c>
       <c r="M24" s="7"/>
@@ -2650,37 +2695,37 @@
         <v>7</v>
       </c>
       <c r="R24" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S24" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S24" s="9" t="s">
+      <c r="T24" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="U24" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="T24" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="U24" s="9" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="E25" s="54" t="s">
+      <c r="D25" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="62" t="s">
-        <v>194</v>
+      <c r="F25" s="32"/>
+      <c r="G25" s="39" t="s">
+        <v>193</v>
       </c>
       <c r="H25" s="23">
         <v>23</v>
@@ -2688,11 +2733,11 @@
       <c r="I25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="6" t="s">
+      <c r="J25" s="39"/>
+      <c r="K25" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="31" t="s">
+      <c r="L25" s="29" t="s">
         <v>10</v>
       </c>
       <c r="M25" s="7"/>
@@ -2708,24 +2753,24 @@
       <c r="U25" s="9"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="62" t="s">
-        <v>192</v>
+      <c r="F26" s="32"/>
+      <c r="G26" s="45" t="s">
+        <v>191</v>
       </c>
       <c r="H26" s="23">
         <v>24</v>
@@ -2733,20 +2778,22 @@
       <c r="I26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="K26" s="6" t="s">
+      <c r="J26" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="K26" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="31" t="s">
+      <c r="L26" s="29" t="s">
         <v>8</v>
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="O26" s="8"/>
+      <c r="O26" s="8" t="s">
+        <v>202</v>
+      </c>
       <c r="P26" s="8" t="s">
         <v>19</v>
       </c>
@@ -2754,37 +2801,37 @@
         <v>6</v>
       </c>
       <c r="R26" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="S26" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="S26" s="9" t="s">
+      <c r="T26" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="T26" s="26" t="s">
+      <c r="U26" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="U26" s="9" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="E27" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="62" t="s">
-        <v>201</v>
+      <c r="D27" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="45" t="s">
+        <v>200</v>
       </c>
       <c r="H27" s="23">
         <v>25</v>
@@ -2792,11 +2839,11 @@
       <c r="I27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="22"/>
-      <c r="K27" s="6" t="s">
+      <c r="J27" s="39"/>
+      <c r="K27" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="31" t="s">
+      <c r="L27" s="29" t="s">
         <v>8</v>
       </c>
       <c r="M27" s="7"/>
@@ -2804,7 +2851,7 @@
         <v>52</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P27" s="8" t="s">
         <v>20</v>
@@ -2813,16 +2860,16 @@
         <v>6</v>
       </c>
       <c r="R27" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="S27" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="S27" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="T27" s="26" t="s">
-        <v>200</v>
+      <c r="T27" s="25" t="s">
+        <v>199</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2835,9 +2882,9 @@
       <c r="G28" s="22"/>
       <c r="H28" s="23"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="22"/>
+      <c r="J28" s="39"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="31"/>
+      <c r="L28" s="29"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="8"/>
@@ -2858,9 +2905,9 @@
       <c r="G29" s="22"/>
       <c r="H29" s="23"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="22"/>
+      <c r="J29" s="39"/>
       <c r="K29" s="6"/>
-      <c r="L29" s="31"/>
+      <c r="L29" s="29"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="8"/>
@@ -2883,7 +2930,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="22"/>
       <c r="K30" s="6"/>
-      <c r="L30" s="31"/>
+      <c r="L30" s="29"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="8"/>
@@ -2906,7 +2953,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="22"/>
       <c r="K31" s="6"/>
-      <c r="L31" s="31"/>
+      <c r="L31" s="29"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="8"/>
@@ -2929,7 +2976,7 @@
       <c r="I32" s="5"/>
       <c r="J32" s="22"/>
       <c r="K32" s="6"/>
-      <c r="L32" s="31"/>
+      <c r="L32" s="29"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="8"/>
@@ -2952,7 +2999,7 @@
       <c r="I33" s="5"/>
       <c r="J33" s="22"/>
       <c r="K33" s="6"/>
-      <c r="L33" s="31"/>
+      <c r="L33" s="29"/>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="8"/>
@@ -2975,7 +3022,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="22"/>
       <c r="K34" s="6"/>
-      <c r="L34" s="31"/>
+      <c r="L34" s="29"/>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="8"/>
@@ -2998,7 +3045,7 @@
       <c r="I35" s="5"/>
       <c r="J35" s="22"/>
       <c r="K35" s="6"/>
-      <c r="L35" s="31"/>
+      <c r="L35" s="29"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
       <c r="O35" s="8"/>
@@ -3021,7 +3068,7 @@
       <c r="I36" s="5"/>
       <c r="J36" s="22"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="31"/>
+      <c r="L36" s="29"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="8"/>
@@ -3044,7 +3091,7 @@
       <c r="I37" s="5"/>
       <c r="J37" s="22"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="31"/>
+      <c r="L37" s="29"/>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="8"/>
@@ -3067,7 +3114,7 @@
       <c r="I38" s="5"/>
       <c r="J38" s="22"/>
       <c r="K38" s="6"/>
-      <c r="L38" s="31"/>
+      <c r="L38" s="29"/>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="8"/>
@@ -3090,7 +3137,7 @@
       <c r="I39" s="5"/>
       <c r="J39" s="22"/>
       <c r="K39" s="6"/>
-      <c r="L39" s="31"/>
+      <c r="L39" s="29"/>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="8"/>
@@ -3113,7 +3160,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="22"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="31"/>
+      <c r="L40" s="29"/>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="8"/>
@@ -3136,7 +3183,7 @@
       <c r="I41" s="5"/>
       <c r="J41" s="22"/>
       <c r="K41" s="6"/>
-      <c r="L41" s="31"/>
+      <c r="L41" s="29"/>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="8"/>
@@ -3159,7 +3206,7 @@
       <c r="I42" s="5"/>
       <c r="J42" s="22"/>
       <c r="K42" s="6"/>
-      <c r="L42" s="31"/>
+      <c r="L42" s="29"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
       <c r="O42" s="8"/>
@@ -3182,7 +3229,7 @@
       <c r="I43" s="5"/>
       <c r="J43" s="22"/>
       <c r="K43" s="6"/>
-      <c r="L43" s="31"/>
+      <c r="L43" s="29"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="8"/>
@@ -3205,7 +3252,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="22"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="31"/>
+      <c r="L44" s="29"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
       <c r="O44" s="8"/>
@@ -3228,7 +3275,7 @@
       <c r="I45" s="5"/>
       <c r="J45" s="22"/>
       <c r="K45" s="6"/>
-      <c r="L45" s="31"/>
+      <c r="L45" s="29"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="8"/>
@@ -3251,7 +3298,7 @@
       <c r="I46" s="5"/>
       <c r="J46" s="22"/>
       <c r="K46" s="6"/>
-      <c r="L46" s="31"/>
+      <c r="L46" s="29"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="8"/>
@@ -3274,7 +3321,7 @@
       <c r="I47" s="5"/>
       <c r="J47" s="22"/>
       <c r="K47" s="6"/>
-      <c r="L47" s="31"/>
+      <c r="L47" s="29"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="8"/>
@@ -3297,7 +3344,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="22"/>
       <c r="K48" s="6"/>
-      <c r="L48" s="31"/>
+      <c r="L48" s="29"/>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="8"/>
@@ -3320,7 +3367,7 @@
       <c r="I49" s="5"/>
       <c r="J49" s="22"/>
       <c r="K49" s="6"/>
-      <c r="L49" s="31"/>
+      <c r="L49" s="29"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="8"/>
@@ -3343,7 +3390,7 @@
       <c r="I50" s="5"/>
       <c r="J50" s="22"/>
       <c r="K50" s="6"/>
-      <c r="L50" s="31"/>
+      <c r="L50" s="29"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
       <c r="O50" s="8"/>
@@ -3366,7 +3413,7 @@
       <c r="I51" s="5"/>
       <c r="J51" s="22"/>
       <c r="K51" s="6"/>
-      <c r="L51" s="31"/>
+      <c r="L51" s="29"/>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="8"/>
@@ -3389,7 +3436,7 @@
       <c r="I52" s="5"/>
       <c r="J52" s="22"/>
       <c r="K52" s="6"/>
-      <c r="L52" s="31"/>
+      <c r="L52" s="29"/>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
       <c r="O52" s="8"/>
@@ -3412,7 +3459,7 @@
       <c r="I53" s="5"/>
       <c r="J53" s="22"/>
       <c r="K53" s="6"/>
-      <c r="L53" s="31"/>
+      <c r="L53" s="29"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
       <c r="O53" s="8"/>
@@ -3435,7 +3482,7 @@
       <c r="I54" s="5"/>
       <c r="J54" s="22"/>
       <c r="K54" s="6"/>
-      <c r="L54" s="31"/>
+      <c r="L54" s="29"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
       <c r="O54" s="8"/>
@@ -3458,7 +3505,7 @@
       <c r="I55" s="5"/>
       <c r="J55" s="22"/>
       <c r="K55" s="6"/>
-      <c r="L55" s="31"/>
+      <c r="L55" s="29"/>
       <c r="M55" s="7"/>
       <c r="N55" s="7"/>
       <c r="O55" s="8"/>
@@ -3481,7 +3528,7 @@
       <c r="I56" s="5"/>
       <c r="J56" s="22"/>
       <c r="K56" s="6"/>
-      <c r="L56" s="31"/>
+      <c r="L56" s="29"/>
       <c r="M56" s="7"/>
       <c r="N56" s="7"/>
       <c r="O56" s="8"/>
@@ -3504,7 +3551,7 @@
       <c r="I57" s="5"/>
       <c r="J57" s="22"/>
       <c r="K57" s="6"/>
-      <c r="L57" s="31"/>
+      <c r="L57" s="29"/>
       <c r="M57" s="7"/>
       <c r="N57" s="7"/>
       <c r="O57" s="8"/>
@@ -3527,7 +3574,7 @@
       <c r="I58" s="5"/>
       <c r="J58" s="22"/>
       <c r="K58" s="6"/>
-      <c r="L58" s="31"/>
+      <c r="L58" s="29"/>
       <c r="M58" s="7"/>
       <c r="N58" s="7"/>
       <c r="O58" s="8"/>
@@ -3550,7 +3597,7 @@
       <c r="I59" s="5"/>
       <c r="J59" s="22"/>
       <c r="K59" s="6"/>
-      <c r="L59" s="31"/>
+      <c r="L59" s="29"/>
       <c r="M59" s="7"/>
       <c r="N59" s="7"/>
       <c r="O59" s="8"/>
@@ -3573,7 +3620,7 @@
       <c r="I60" s="5"/>
       <c r="J60" s="22"/>
       <c r="K60" s="6"/>
-      <c r="L60" s="31"/>
+      <c r="L60" s="29"/>
       <c r="M60" s="7"/>
       <c r="N60" s="7"/>
       <c r="O60" s="8"/>
@@ -3596,7 +3643,7 @@
       <c r="I61" s="5"/>
       <c r="J61" s="22"/>
       <c r="K61" s="6"/>
-      <c r="L61" s="31"/>
+      <c r="L61" s="29"/>
       <c r="M61" s="7"/>
       <c r="N61" s="7"/>
       <c r="O61" s="8"/>
@@ -3619,7 +3666,7 @@
       <c r="I62" s="5"/>
       <c r="J62" s="22"/>
       <c r="K62" s="6"/>
-      <c r="L62" s="31"/>
+      <c r="L62" s="29"/>
       <c r="M62" s="7"/>
       <c r="N62" s="7"/>
       <c r="O62" s="8"/>
@@ -3642,7 +3689,7 @@
       <c r="I63" s="5"/>
       <c r="J63" s="22"/>
       <c r="K63" s="6"/>
-      <c r="L63" s="31"/>
+      <c r="L63" s="29"/>
       <c r="M63" s="7"/>
       <c r="N63" s="7"/>
       <c r="O63" s="8"/>
@@ -3665,7 +3712,7 @@
       <c r="I64" s="5"/>
       <c r="J64" s="22"/>
       <c r="K64" s="6"/>
-      <c r="L64" s="31"/>
+      <c r="L64" s="29"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
       <c r="O64" s="8"/>
@@ -3688,7 +3735,7 @@
       <c r="I65" s="5"/>
       <c r="J65" s="22"/>
       <c r="K65" s="6"/>
-      <c r="L65" s="31"/>
+      <c r="L65" s="29"/>
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
       <c r="O65" s="8"/>
@@ -3711,7 +3758,7 @@
       <c r="I66" s="5"/>
       <c r="J66" s="22"/>
       <c r="K66" s="6"/>
-      <c r="L66" s="31"/>
+      <c r="L66" s="29"/>
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
       <c r="O66" s="8"/>
@@ -3734,7 +3781,7 @@
       <c r="I67" s="5"/>
       <c r="J67" s="22"/>
       <c r="K67" s="6"/>
-      <c r="L67" s="31"/>
+      <c r="L67" s="29"/>
       <c r="M67" s="7"/>
       <c r="N67" s="7"/>
       <c r="O67" s="8"/>
@@ -3757,7 +3804,7 @@
       <c r="I68" s="5"/>
       <c r="J68" s="22"/>
       <c r="K68" s="6"/>
-      <c r="L68" s="31"/>
+      <c r="L68" s="29"/>
       <c r="M68" s="7"/>
       <c r="N68" s="7"/>
       <c r="O68" s="8"/>
@@ -3780,7 +3827,7 @@
       <c r="I69" s="5"/>
       <c r="J69" s="22"/>
       <c r="K69" s="6"/>
-      <c r="L69" s="31"/>
+      <c r="L69" s="29"/>
       <c r="M69" s="7"/>
       <c r="N69" s="7"/>
       <c r="O69" s="8"/>
@@ -3803,7 +3850,7 @@
       <c r="I70" s="5"/>
       <c r="J70" s="22"/>
       <c r="K70" s="6"/>
-      <c r="L70" s="31"/>
+      <c r="L70" s="29"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
       <c r="O70" s="8"/>
@@ -3826,7 +3873,7 @@
       <c r="I71" s="5"/>
       <c r="J71" s="22"/>
       <c r="K71" s="6"/>
-      <c r="L71" s="31"/>
+      <c r="L71" s="29"/>
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
       <c r="O71" s="8"/>
@@ -4203,6 +4250,12 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4217,12 +4270,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
